--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1179686.055446407</v>
+        <v>-1140748.83526642</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17440984.00909675</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484445</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10167621.67980154</v>
+        <v>10176068.99152157</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>118.7209408657112</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -722,10 +722,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>69.87086235122617</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +817,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>38.95225215556251</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>10.56519864078331</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>332.4291174559665</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -911,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>178.810553743107</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>106.062636650466</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1111,7 +1111,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>252.3104170021808</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>327.2879775827834</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>29.74512849779529</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1300,16 +1300,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>41.26176538196641</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>176.9484966573165</v>
       </c>
     </row>
     <row r="11">
@@ -1373,13 +1373,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>156.8393404596664</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1528,10 +1528,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
-        <v>212.6072792671021</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1765,16 +1765,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>111.5309907175798</v>
       </c>
       <c r="F16" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112162</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2014,10 +2014,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>73.01514676193455</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2050,16 +2050,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>172.6623007436918</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776638</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3205,7 +3205,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934044</v>
+        <v>4.967932742934476</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>270.0031426724688</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="36">
@@ -3442,7 +3442,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432345</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934044</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3676,7 +3676,7 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277812</v>
       </c>
       <c r="I40" t="n">
         <v>71.53763939432405</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934044</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3755,7 +3755,7 @@
         <v>381.1481427242214</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>270.0031426724688</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>790.4431040964523</v>
+        <v>1179.522927011916</v>
       </c>
       <c r="C2" t="n">
-        <v>756.3410353202796</v>
+        <v>1179.522927011916</v>
       </c>
       <c r="D2" t="n">
-        <v>724.4716545351282</v>
+        <v>1179.522927011916</v>
       </c>
       <c r="E2" t="n">
-        <v>724.4716545351282</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F2" t="n">
-        <v>724.4716545351282</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
         <v>323.0738231583921</v>
@@ -4331,22 +4331,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>1528.02936532736</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>1528.02936532736</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1528.02936532736</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1577.26328779182</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1214.646337725647</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W2" t="n">
-        <v>1213.831287177084</v>
+        <v>1250.099555649518</v>
       </c>
       <c r="X2" t="n">
-        <v>794.6888237563949</v>
+        <v>1179.522927011916</v>
       </c>
       <c r="Y2" t="n">
-        <v>790.4431040964523</v>
+        <v>1179.522927011916</v>
       </c>
     </row>
     <row r="3">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>422.5581434046701</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="C4" t="n">
-        <v>249.9964318878951</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>249.9964318878951</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>249.9964318878951</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>73.28937784965129</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1419.214244545271</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>1132.258736415702</v>
       </c>
       <c r="W4" t="n">
-        <v>859.7685167902448</v>
+        <v>1132.258736415702</v>
       </c>
       <c r="X4" t="n">
-        <v>614.3767621236573</v>
+        <v>1132.258736415702</v>
       </c>
       <c r="Y4" t="n">
-        <v>614.3767621236573</v>
+        <v>1132.258736415702</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>351.1922015055532</v>
       </c>
       <c r="C5" t="n">
-        <v>822.1393557439874</v>
+        <v>317.0901327293805</v>
       </c>
       <c r="D5" t="n">
-        <v>393.5576814812557</v>
+        <v>285.2207519442291</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>255.4864111429283</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>231.6593855925401</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>231.6593855925401</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.04266463990681</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199647</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>485.8805627199647</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>485.8805627199647</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>485.8805627199647</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>562.6504997812805</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1189.145706210985</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1815.640912640689</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599284</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352341</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2447.641889536178</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2227.574662409216</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1968.352359726233</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1605.73540966006</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1200.879955071093</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>781.7374916504035</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>777.491771990461</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583396</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.3411590949819</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415352</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684889</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.7466171846505</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.36152745083434</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.68954842750441</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.2478733937167</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1027.743079823421</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1027.743079823421</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1027.743079823421</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>1027.743079823421</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>1027.743079823421</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.587300558882</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381028</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0480393311882</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>621.4863278144131</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>621.4863278144131</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>621.4863278144131</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.7792737761693</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>279.187998801997</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.2858244923715</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.2055604317367</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.9640150028723</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>830.1738967708334</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1289.657763951746</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1731.916567109391</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2151.585816335172</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2363.100988488008</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352341</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2509.875942057713</v>
       </c>
       <c r="S7" t="n">
-        <v>1590.049453665805</v>
+        <v>2509.875942057713</v>
       </c>
       <c r="T7" t="n">
-        <v>1344.17000724426</v>
+        <v>2263.996495636168</v>
       </c>
       <c r="U7" t="n">
-        <v>1065.737006497366</v>
+        <v>1985.563494889273</v>
       </c>
       <c r="V7" t="n">
-        <v>778.7814983677961</v>
+        <v>1730.704487816363</v>
       </c>
       <c r="W7" t="n">
-        <v>506.7550939540876</v>
+        <v>1458.678083402655</v>
       </c>
       <c r="X7" t="n">
-        <v>261.3633392875001</v>
+        <v>1213.286328736067</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.94366860160834</v>
+        <v>985.8666580501754</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>846.6806259663152</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C8" t="n">
-        <v>418.0989517035836</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2640.01524209022</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2640.01524209022</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2235.159787501254</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1816.017324080564</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.980196451223</v>
+        <v>1407.731200380218</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>718.8484307043673</v>
+        <v>790.1610481280939</v>
       </c>
       <c r="C10" t="n">
-        <v>546.2867191875922</v>
+        <v>617.5993366113188</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4087263891149</v>
+        <v>451.7213438128414</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1235.38760622724</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1655.504879189542</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.478474775834</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1138.086720109246</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>910.6670494233545</v>
+        <v>981.979666847081</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1366.524146594475</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>928.3816737778984</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>928.3816737778984</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>928.3816737778984</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>769.9580975560132</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>368.5602661792771</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43011162249333</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>514.2680097025511</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1348.618301660729</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1598.067588850463</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1598.067588850463</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="N11" t="n">
-        <v>1598.067588850463</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O11" t="n">
-        <v>2575.857451689676</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3404.167326523072</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3950.666112481666</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3950.666112481666</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3867.014238665503</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3646.947011538542</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3387.724708855559</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3025.107758789385</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2620.252304200419</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2201.109840779729</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1792.823717079383</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>585.1850672409262</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>478.7286060775684</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>383.6383172241217</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>289.5179025510754</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>206.134064167237</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>120.7489744334209</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>105.0769954100909</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>429.6353203763032</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1625.080305634103</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1742.253083728442</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1678.797646176825</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1548.619002507427</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1372.282455507395</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1173.164937569395</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>987.8421833025886</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>832.9747475414686</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>706.4889683206893</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>819.6317785462625</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>819.6317785462625</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>819.6317785462625</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>649.8737747969997</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>473.1667207587558</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>307.5754457845835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>167.673271474958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>165.5930074143232</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>440.3514619854588</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>858.5613437534199</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.045210934333</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1760.304014091977</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2179.973263317759</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2527.480157288101</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2695.672932152433</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2695.672932152433</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2536.431563450429</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2321.676735907902</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2043.243735161007</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1756.288227031437</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1484.261822617729</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1238.870067951141</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1011.45039726525</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5282,31 +5282,31 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
         <v>4550.100609912873</v>
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5413,22 +5413,22 @@
         <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>639.1929661716164</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="D16" t="n">
-        <v>473.3149733731391</v>
+        <v>645.8766848899141</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5569696238763</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5504,31 +5504,31 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>382.0682546095385</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>1216.418546567716</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>2291.478512820576</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423627</v>
+        <v>2291.478512820576</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>3417.209496257023</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057297</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
         <v>190.9207894961043</v>
@@ -5692,31 +5692,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878952</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176948</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755404</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U19" t="n">
-        <v>2117.975449367836</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
         <v>614.3171730324584</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6464,22 +6464,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2412.031452783383</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.671098481817</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="N32" t="n">
-        <v>3137.402081918264</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O32" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4945.891623321967</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6862,7 +6862,7 @@
         <v>495.7456864773249</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806457</v>
+        <v>930.0289214806459</v>
       </c>
       <c r="M34" t="n">
         <v>1405.586141896919</v>
@@ -6871,28 +6871,28 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751064</v>
+        <v>2299.660900751065</v>
       </c>
       <c r="P34" t="n">
         <v>2663.241147956766</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056458</v>
+        <v>2847.507276056459</v>
       </c>
       <c r="R34" t="n">
         <v>2842.489162174707</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.647500885579</v>
+        <v>2699.64750088558</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.16776187691</v>
+        <v>2470.167761876911</v>
       </c>
       <c r="U34" t="n">
         <v>2208.134468542892</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826198</v>
+        <v>1937.578667826199</v>
       </c>
       <c r="W34" t="n">
         <v>1681.951970825366</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>370.2971508197257</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N35" t="n">
-        <v>3168.718933692368</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992528</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886291</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D37" t="n">
-        <v>760.880759503028</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666414</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412737</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799775</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832282</v>
+        <v>169.8269454882658</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708294</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773249</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806457</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M37" t="n">
-        <v>1405.586141896919</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289923</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751064</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956766</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056458</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174707</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.647500885579</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.16776187691</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542892</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826198</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825366</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571655</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298639</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="38">
@@ -7148,64 +7148,64 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197257</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581808</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
-        <v>444.7825334645028</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>1279.132825422681</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245846</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079242</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037837</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
@@ -7214,7 +7214,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y38" t="n">
         <v>2835.290740278742</v>
@@ -7245,10 +7245,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
         <v>448.1887018024878</v>
@@ -7309,25 +7309,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7354,7 +7354,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7363,7 +7363,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
@@ -7372,7 +7372,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703677</v>
@@ -7397,58 +7397,58 @@
         <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197257</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>444.7825334645028</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>1279.132825422681</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245846</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
         <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566213</v>
@@ -7482,10 +7482,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
         <v>448.1887018024878</v>
@@ -7591,13 +7591,13 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
@@ -7646,28 +7646,28 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
-        <v>444.7825334645019</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>1279.13282542268</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790892</v>
@@ -7979,25 +7979,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>77.54539097102605</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380852</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380852</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380853</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>28.49579817779727</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>213.6516890432686</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,19 +8614,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8693,16 +8693,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>251.9689769593274</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>987.6665281204166</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158828</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>282.6337518573322</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9170,16 +9170,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,7 +10124,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>1050.672356668189</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>168.8387779969844</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,22 +10583,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>575.2670899541645</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>350.723060392611</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>350.723060392611</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>350.7230603926101</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>190.921890241703</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>52.35859792703859</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>345.0801764352562</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>266.749414835218</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
-        <v>30.81337269022714</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>56.52943299419032</v>
       </c>
       <c r="F16" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>90.92021546249606</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,16 +23938,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>102.9863699957339</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>815139.4176761344</v>
+        <v>671510.8207212826</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>882364.2982060583</v>
+        <v>890918.3945612535</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>882364.2982060583</v>
+        <v>892341.4998521922</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>743939.9779302492</v>
+        <v>896727.6273386038</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>896727.6273386038</v>
+        <v>896727.6273386041</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>896727.6273386038</v>
+        <v>896727.627338604</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>896727.6273386036</v>
+        <v>896727.6273386038</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>911591.2045434938</v>
+        <v>909741.8095561212</v>
       </c>
     </row>
     <row r="14">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74119.76543388091</v>
+        <v>60654.58446936357</v>
       </c>
       <c r="C2" t="n">
-        <v>80422.09798356125</v>
+        <v>80422.09798356127</v>
       </c>
       <c r="D2" t="n">
-        <v>80422.09798356124</v>
+        <v>80422.09798356127</v>
       </c>
       <c r="E2" t="n">
-        <v>65563.45665608552</v>
+        <v>79028.63762060281</v>
       </c>
       <c r="F2" t="n">
-        <v>79028.63762060282</v>
+        <v>79028.63762060284</v>
       </c>
       <c r="G2" t="n">
         <v>79028.63762060281</v>
       </c>
       <c r="H2" t="n">
-        <v>79028.63762060281</v>
+        <v>79028.63762060282</v>
       </c>
       <c r="I2" t="n">
         <v>79028.63762060281</v>
@@ -26338,19 +26338,19 @@
         <v>79028.63762060281</v>
       </c>
       <c r="K2" t="n">
-        <v>79028.63762060282</v>
+        <v>79028.63762060281</v>
       </c>
       <c r="L2" t="n">
         <v>80422.09798356135</v>
       </c>
       <c r="M2" t="n">
-        <v>80422.09798356135</v>
+        <v>80422.09798356127</v>
       </c>
       <c r="N2" t="n">
-        <v>80422.09798356138</v>
+        <v>80422.09798356127</v>
       </c>
       <c r="O2" t="n">
-        <v>80422.09798356131</v>
+        <v>80422.0979835613</v>
       </c>
       <c r="P2" t="n">
         <v>80422.09798356138</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246222</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106422</v>
       </c>
       <c r="E3" t="n">
-        <v>168210.0880865</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>83262.72935658701</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338208</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>21768.74196143521</v>
       </c>
       <c r="M3" t="n">
-        <v>140394.2245962802</v>
+        <v>137577.700737852</v>
       </c>
       <c r="N3" t="n">
-        <v>56802.80065713869</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169715.5868602363</v>
+        <v>118479.0404528102</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>154526.7187594517</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
-        <v>45265.3868693173</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="F4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="G4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
+        <v>54561.82510962277</v>
+      </c>
+      <c r="I4" t="n">
         <v>54561.82510962276</v>
-      </c>
-      <c r="I4" t="n">
-        <v>54561.82510962275</v>
       </c>
       <c r="J4" t="n">
         <v>54561.82510962276</v>
@@ -26448,16 +26448,16 @@
         <v>59904.18292625602</v>
       </c>
       <c r="M4" t="n">
-        <v>59904.18292625602</v>
+        <v>68372.72551926989</v>
       </c>
       <c r="N4" t="n">
-        <v>68372.72551926991</v>
+        <v>68372.72551926989</v>
       </c>
       <c r="O4" t="n">
-        <v>68372.72551926991</v>
+        <v>68372.72551926988</v>
       </c>
       <c r="P4" t="n">
-        <v>68372.72551926991</v>
+        <v>68372.72551926989</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295558</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60050.12490972133</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,13 +26500,13 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826067</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
         <v>75515.61472608971</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-297211.9102232877</v>
+        <v>-259770.0033389489</v>
       </c>
       <c r="C6" t="n">
-        <v>-172699.3698048255</v>
+        <v>-213577.0353713082</v>
       </c>
       <c r="D6" t="n">
-        <v>-172699.3698048255</v>
+        <v>-152576.9240250498</v>
       </c>
       <c r="E6" t="n">
-        <v>-207962.1432094531</v>
+        <v>-235629.7596552449</v>
       </c>
       <c r="F6" t="n">
-        <v>-136514.1554513994</v>
+        <v>-53274.65043419509</v>
       </c>
       <c r="G6" t="n">
-        <v>-53251.42609481244</v>
+        <v>-53274.65043419511</v>
       </c>
       <c r="H6" t="n">
-        <v>-53251.42609481244</v>
+        <v>-53274.65043419511</v>
       </c>
       <c r="I6" t="n">
-        <v>-53251.42609481246</v>
+        <v>-53274.65043419511</v>
       </c>
       <c r="J6" t="n">
-        <v>-164265.8914398027</v>
+        <v>-164289.1157791853</v>
       </c>
       <c r="K6" t="n">
-        <v>-53251.42609481245</v>
+        <v>-106942.9774975772</v>
       </c>
       <c r="L6" t="n">
-        <v>-71553.81175195324</v>
+        <v>-80333.98544239055</v>
       </c>
       <c r="M6" t="n">
-        <v>-198959.4680772356</v>
+        <v>-201043.9429996503</v>
       </c>
       <c r="N6" t="n">
-        <v>-120269.0429189369</v>
+        <v>-63466.24226179834</v>
       </c>
       <c r="O6" t="n">
-        <v>-63466.24226179832</v>
+        <v>-63466.2422617983</v>
       </c>
       <c r="P6" t="n">
-        <v>-63466.24226179824</v>
+        <v>-63466.24226179822</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
         <v>16.23571033874737</v>
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380852</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>987.6665281204166</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179808</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977182</v>
       </c>
       <c r="E4" t="n">
-        <v>563.3706706003122</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>290.5939752643285</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179808</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977182</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003122</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="N4" t="n">
-        <v>231.9172678273065</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179808</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977182</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003122</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>290.5939752643285</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>240.6287967355969</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>30.45675715096277</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>137.9091387904421</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>124.9831100688681</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>265.0834720986424</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>97.00787993732121</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>107.4282992681089</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -27783,16 +27783,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>51.58631836451733</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>31.77553604609307</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>104.2627093945165</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>226.884951158358</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>242.8241876663074</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>48.1969773217163</v>
       </c>
     </row>
     <row r="11">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>16.23571033874714</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="36">
@@ -30475,7 +30475,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874714</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30891,10 +30891,10 @@
         <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
+        <v>16.23571033874759</v>
+      </c>
+      <c r="P46" t="n">
         <v>16.23571033874737</v>
-      </c>
-      <c r="P46" t="n">
-        <v>16.23571033874759</v>
       </c>
       <c r="Q46" t="n">
         <v>16.23571033874737</v>
@@ -34699,25 +34699,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>77.54539097102605</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380852</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380852</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,13 +35009,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380853</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>28.49579817779727</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>213.6516890432686</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,19 +35410,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>251.9689769593274</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>987.6665281204166</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158828</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35650,13 +35650,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>282.6337518573322</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36060,7 +36060,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821548</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,10 +36841,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>1050.672356668189</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831382</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>168.8387779969844</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.669934346789</v>
       </c>
       <c r="M34" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N34" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P34" t="n">
         <v>367.2527749552542</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>575.2670899541645</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N37" t="n">
         <v>462.9617741343479</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>350.723060392611</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -37558,13 +37558,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>350.723060392611</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>350.7230603926101</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
         <v>186.127402120901</v>
